--- a/Documentation/Attendence System_Component_List.xlsx
+++ b/Documentation/Attendence System_Component_List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t xml:space="preserve">Particular</t>
   </si>
@@ -28,7 +28,13 @@
     <t xml:space="preserve">Qty</t>
   </si>
   <si>
-    <t xml:space="preserve">Raspberry pi </t>
+    <t xml:space="preserve">Price(Rs.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost(Rs.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry pi 3B+</t>
   </si>
   <si>
     <t xml:space="preserve">Securico Magnetic Contact 2 Wire</t>
@@ -85,9 +91,15 @@
     <t xml:space="preserve">Slodering stand </t>
   </si>
   <si>
+    <t xml:space="preserve">430(total)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Front Plate</t>
   </si>
   <si>
+    <t xml:space="preserve">Free</t>
+  </si>
+  <si>
     <t xml:space="preserve">Back plate</t>
   </si>
   <si>
@@ -127,6 +139,9 @@
     <t xml:space="preserve">Raspberry pi 3 B+</t>
   </si>
   <si>
+    <t xml:space="preserve">Raspberry pi 3 B+ Case</t>
+  </si>
+  <si>
     <t xml:space="preserve">Panic Switch</t>
   </si>
   <si>
@@ -143,6 +158,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry pi zero w V1.1 Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini HDMI adapter </t>
   </si>
 </sst>
 </file>
@@ -191,7 +212,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +223,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -259,13 +286,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -273,23 +304,47 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -338,7 +393,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -369,348 +424,573 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="81.1943319838057"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>3989</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>646</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>539</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>550</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="C12" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>165</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="C27" s="6" t="n">
+        <v>240</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>160</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="B31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="B33" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>3245</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>499</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>319</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7" t="n">
+      <c r="C39" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="6" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="C42" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B18" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="13" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="13" t="n">
+        <v>120</v>
+      </c>
+      <c r="D44" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
